--- a/medicine/Sexualité et sexologie/Resserrement_vaginal/Resserrement_vaginal.xlsx
+++ b/medicine/Sexualité et sexologie/Resserrement_vaginal/Resserrement_vaginal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le resserrement vaginal, le remodelage vaginal ou encore la périnéorraphie, est une intervention gynécologique consistant à aider les muscles du périnée à atteindre ou garder le bon degré d’élasticité.
 Le resserrement vaginal comporte plusieurs méthodes, toutes efficaces à leur manière et pouvant être complémentaires.
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plancher pelvien, région qui constitue le périnée, est un groupe de muscles et de ligaments, dont le principal muscle est appelé le muscle pubo-coccygien, ou muscle PC.
 C’est un muscle en forme de hamac, qui se retrouve autant chez la femme que chez l’homme, qui est attaché à l'os pubien, à l’avant et au coccyx, à l’arrière.
@@ -547,7 +561,9 @@
           <t>Méthodes d'interventions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vaginoplastie : opération de chirurgie plastique reconstructive pour corriger les défauts et les malformations du canal vaginal et ses muqueuses, des structures vulvo-vaginale qui peuvent être absentes ou endommagées à cause d'une maladie congénitale (par exemple dans le cas de l'atrésie vaginale) ou dans d'autres cas plus spécifiques (traumatisme physique, dysphorie de genre, cancer).
 Exercice de Kegel : ainsi nommé d'après le Dr Arnold Kegel, c'est un exercice destiné à renforcer le muscle pubo-coccygien. Ces exercices, créés vers 1940, consistent en des contractions et décontractions alternées des muscles qui forment le plancher pelvien (pour cette raison parfois appelés les « muscles de Kegel »).
